--- a/transformCase/待完善测试用例.xlsx
+++ b/transformCase/待完善测试用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>用例名称</t>
   </si>
@@ -54,7 +54,7 @@
     <t>描述</t>
   </si>
   <si>
-    <t>/sysback/choose/category/getRecentCategoryList</t>
+    <t>/sysback/template/producttemplateattrvaluecategory/creatAttrValueCategory</t>
   </si>
   <si>
     <t>{"Accept": "application/json, text/plain, */*", "Content-Type": "application/x-www-form-urlencoded"}</t>
@@ -63,88 +63,207 @@
     <t>POST</t>
   </si>
   <si>
-    <t>{"oper": "ljw"}</t>
+    <t>{"attrValueCategoryName": "脚本属性值分类"}</t>
   </si>
   <si>
     <t>form</t>
   </si>
   <si>
-    <t>{"menuId": "238", "buttonId": "1"}</t>
-  </si>
-  <si>
-    <t>/sysback/choose/category/getLevelOneCategoryList</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>/sysback/addsingleproduct/basicinfo/getPagerByBrandAndCategory</t>
-  </si>
-  <si>
-    <t>{"nowPage": "1", "pageShow": "10", "brandName": "", "categoryUuid": "13000", "notInUuids": ""}</t>
-  </si>
-  <si>
-    <t>/sysback/unit/baseQueryList</t>
+    <t>{"menuId": "218", "buttonId": "1"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplateattrvaluecategory/deleteAttrValueCategroyByUuids</t>
+  </si>
+  <si>
+    <t>{"menuId": "218", "buttonId": "4"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplateattrvaluecategory/baseUpdate</t>
   </si>
   <si>
     <t>{"Accept": "application/json, text/plain, */*", "Content-Type": "application/json;charset=UTF-8"}</t>
   </si>
   <si>
-    <t>{"nowPage": 1, "pageShow": 10, "searchParam": "[{\"name\":\"unitName\",\"value\":\"\"},{\"name\":\"unitName_q\",\"value\":\"Like\"}]"}</t>
-  </si>
-  <si>
     <t>json</t>
   </si>
   <si>
-    <t>{"menuId": "239", "buttonId": "2"}</t>
-  </si>
-  <si>
-    <t>/sysback/addsingleproduct/basicinfo/getSpuHelpCode</t>
-  </si>
-  <si>
-    <t>{"productNameType": "1", "productName": "sad撒大所多", "brandName": "菲尼克斯"}</t>
-  </si>
-  <si>
-    <t>/sysback/supplyinfofromsrcm/getAllAreaFromScrm</t>
-  </si>
-  <si>
-    <t>/sysback/supplyinfofromsrcm/getSupplyPageFromScrm</t>
-  </si>
-  <si>
-    <t>{"nowPage": "1", "pageShow": "10", "supplyName": ""}</t>
-  </si>
-  <si>
-    <t>{"menuId": "239", "buttonId": "147"}</t>
-  </si>
-  <si>
-    <t>{"nowPage": "1", "pageShow": "10", "supplyName": "11297"}</t>
-  </si>
-  <si>
-    <t>查询计量单位</t>
-  </si>
-  <si>
-    <t>查询最近使用分类</t>
-  </si>
-  <si>
-    <t>新增商品获取分类</t>
-  </si>
-  <si>
-    <t>查询品牌</t>
-  </si>
-  <si>
-    <t>生成商品助记码</t>
-  </si>
-  <si>
-    <t>获取销售区域</t>
-  </si>
-  <si>
-    <t>查询供应商</t>
-  </si>
-  <si>
-    <t>查询指定供应商</t>
-  </si>
-  <si>
-    <t>[{"jsonpath": "retStatuus", "exp":"1"}]</t>
+    <t>{"menuId": "218", "buttonId": "3"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplateattrvalue/createAttrValue</t>
+  </si>
+  <si>
+    <t>{"menuId": "219", "buttonId": "1"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplateattrvalue/baseDelete</t>
+  </si>
+  <si>
+    <t>{"menuId": "219", "buttonId": "4"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplateattrvalue/updateAttrValue</t>
+  </si>
+  <si>
+    <t>{"menuId": "219", "buttonId": "3"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplateattr/createTemplateAttr</t>
+  </si>
+  <si>
+    <t>{"attributeName": "测试属性111", "aliasAttrName": "测试属性", "engName": "", "unit": "", "attributeType": "01"}</t>
+  </si>
+  <si>
+    <t>{"menuId": "217", "buttonId": "1"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplateattr/deleteTemplateAttrByUuids</t>
+  </si>
+  <si>
+    <t>{"menuId": "217", "buttonId": "4"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplateattr/updateProductAttr</t>
+  </si>
+  <si>
+    <t>{"menuId": "217", "buttonId": "3"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplate/createTemplate</t>
+  </si>
+  <si>
+    <t>{"name": "测试模板", "canUse": "1", "note": "111", "categoryUuid": "10000"}</t>
+  </si>
+  <si>
+    <t>{"menuId": "215", "buttonId": "2"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplate/baseDelete</t>
+  </si>
+  <si>
+    <t>{"menuId": "215", "buttonId": "4"}</t>
+  </si>
+  <si>
+    <t>/sysback/template/producttemplate/updateTemplate</t>
+  </si>
+  <si>
+    <t>{"menuId": "215", "buttonId": "3"}</t>
+  </si>
+  <si>
+    <t>新增属性值分类</t>
+  </si>
+  <si>
+    <t>删除属性值分类</t>
+  </si>
+  <si>
+    <t>初始化属性值分类</t>
+  </si>
+  <si>
+    <t>删除属性值</t>
+  </si>
+  <si>
+    <t>初始化属性值1</t>
+  </si>
+  <si>
+    <t>初始化属性值2</t>
+  </si>
+  <si>
+    <t>新增属性</t>
+  </si>
+  <si>
+    <t>删除属性</t>
+  </si>
+  <si>
+    <t>初始化规格属性</t>
+  </si>
+  <si>
+    <t>初始化非规格属性</t>
+  </si>
+  <si>
+    <t>删除模板</t>
+  </si>
+  <si>
+    <t>初始化模板</t>
+  </si>
+  <si>
+    <t>被关联的属性值不允许删除</t>
+  </si>
+  <si>
+    <t>被关联的属性不允许删除</t>
+  </si>
+  <si>
+    <t>被关联的属性模板不允许删除</t>
+  </si>
+  <si>
+    <t>[{"jmespath": "retStatus", "exp":"1"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jmespath":"{uuid: retData}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuids": "#新增属性值分类.uuid#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#通用.valueTypeUuid#", "categoryName": "脚本御用属性值分类"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"value": "脚本属性值", "categoryUuid": "#通用.valueTypeUuid#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#新增属性值.uuid#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuids": "#新增属性.uuid#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#通用.value1Uuid#","valueState": "1", "categoryUuid": "2100003092", "value": "脚本御用属性值1", "storeUuid": "system", "templateBelong": "01", "select": "", "categoryName": "", "inUse": "2", "attrUuid": null, "belongType": null, "belongUuid": null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#通用.value2Uuid#", "mapCondition": {}, "valueState": "1", "valueImageKey": null, "categoryUuid": "2100003092", "value": "脚本御用属性值2", "storeUuid": "system", "templateBelong": "01", "select": "", "categoryName": "", "inUse": "2", "attrUuid": null, "belongType": null, "belongUuid": null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#通用.attr1Uuid#", "oper": "6674", "opeTime": "2022-01-26 09:04:24", "delFlag": 1, "createOper": "6674", "createOpeTime": "2022-01-20 09:21:20", "version": 3, "operationNumber": null, "orgId": "1002N11000000000HS44", "sortName": "opeTime", "sortType": "desc", "menuId": null, "buttonId": null, "loginUserId": null, "hrDepartmentNumber": null, "hrAreaId": null, "areaNo": null, "mapCondition": {}, "attributeState": "1", "attributeName": "脚本规格属性", "aliasAttrName": "脚本属性", "engName": "", "unit": "", "storeUuid": "system", "templateBelong": "01", "attributeType": "01", "canAttribute": null, "type": null, "inUse": "2", "attributeTypeName": "自定义", "templateUuid": null, "attributeStateName": "启用"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#通用.attr2Uuid#", "oper": "6674", "opeTime": "2022-01-26 09:04:24", "delFlag": 1, "createOper": "6674", "createOpeTime": "2021-11-03 11:59:21", "version": 4, "operationNumber": null, "orgId": "1002N11000000000HS44", "sortName": "opeTime", "sortType": "desc", "menuId": null, "buttonId": null, "loginUserId": null, "hrDepartmentNumber": null, "hrAreaId": null, "areaNo": null, "mapCondition": {}, "attributeState": "1", "attributeName": "脚本非规格属性\t", "aliasAttrName": "脚本非规格属性", "engName": "", "unit": "", "storeUuid": "system", "templateBelong": "01", "attributeType": "01", "canAttribute": null, "type": null, "inUse": "2", "attributeTypeName": "自定义", "templateUuid": null, "attributeStateName": "启用"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#新增模板.uuid#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#通用.templateUuid#", "oper": "6674", "opeTime": "2022-01-26 09:04:24", "delFlag": 1, "createOper": "6674", "createOpeTime": "2022-01-20 15:37:21", "version": 17, "operationNumber": null, "orgId": "1002N11000000000HS44", "sortName": "opeTime", "sortType": "desc", "menuId": null, "buttonId": null, "loginUserId": null, "hrDepartmentNumber": null, "hrAreaId": null, "areaNo": null, "mapCondition": {}, "isUsed": "2", "canUse": "1", "categoryUuid": "10000", "createTime": "2022-01-20 15:37:21", "name": "脚本御用属性模板", "note": "测试勿动", "categoryName": "", "inUse": "2", "isRel": "", "isHaveAttr": null, "platCategoryUuid": null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#通用.value1Uuid#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuids": "#通用.attr1Uuid#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": #通用.templateUuid#}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,22 +613,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="110.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="147.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.77734375" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -552,7 +674,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -573,12 +695,15 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -590,172 +715,415 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
       </c>
       <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
